--- a/project/HLR. project1..xlsx
+++ b/project/HLR. project1..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIMANSHU JOSHI\Desktop\git\SoftwareTesting\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C7D23-356B-49F9-92D7-EA1B8FF56C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F289F-1915-4B11-8C5D-080DD52708DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1698,22 +1698,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2613,7 +2613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -2633,52 +2633,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="76" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="71"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="34"/>
@@ -4877,17 +4877,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -4938,7 +4938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -6043,8 +6043,9 @@
     <hyperlink ref="H10" r:id="rId5" xr:uid="{D1AB3602-6D48-457E-BEC5-A9A599A49141}"/>
     <hyperlink ref="H11" r:id="rId6" xr:uid="{E4F29EFF-CB30-47CF-8391-E06EB85AE3B9}"/>
     <hyperlink ref="P11" r:id="rId7" xr:uid="{C9A77DD5-0B60-4A9A-AD35-F4AD58E501C9}"/>
+    <hyperlink ref="P10" r:id="rId8" xr:uid="{E85DC55D-72F1-4198-9AF7-372C337B118F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>